--- a/data/model_info.xlsx
+++ b/data/model_info.xlsx
@@ -1,21 +1,258 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KimLoai\Documents\R project\KLTN\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFC5371-BE5E-4DEB-B5B4-215487DF4948}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>KimLoai</author>
+  </authors>
+  <commentList>
+    <comment ref="N3" authorId="0" shapeId="0" xr:uid="{93BAAE89-9BF6-45C5-9BC9-CF501098BD4D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimLoai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+rất k hợp lý, nếu truy xuất lại data sheet "model' thì lợi nhuận chắc chắn chỉ từ cây tre (măng) vì những cây khác chưa thể thu hoạch. Tre trong idMODEL2 chỉ có 25 cây (idMODEL1 300 CÂY) nhưng lợi nhuận/ha của idMODEL2 cao hơn rất nhiều</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J14" authorId="0" shapeId="0" xr:uid="{B84CE22B-86A2-44AC-8666-4DB459224C46}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimLoai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+chưa thu hoạch</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J19" authorId="0" shapeId="0" xr:uid="{50DB1ADF-0E2D-4F75-AA04-7D4E0B9D3BE3}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimLoai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+1.5 tấn bán 100 triệu?? Ghê thế</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I28" authorId="0" shapeId="0" xr:uid="{3899B966-3401-434C-BE47-D9FEB8B6B1AE}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimLoai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0.2 tấn tre có giá 50 triệu??</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I29" authorId="0" shapeId="0" xr:uid="{67C56BEF-6E93-40CA-93BB-FD19BFBFF620}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimLoai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+5 tấn tre(măng) trị giá 15 triệu?</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J29" authorId="0" shapeId="0" xr:uid="{232FC3FF-57E9-49AA-B8CB-5DFF82D9BDE2}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>KimLoai:
+quá thấp</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="24">
+  <si>
+    <t>idMODEL</t>
+  </si>
+  <si>
+    <t>intercr</t>
+  </si>
+  <si>
+    <t>mainpl</t>
+  </si>
+  <si>
+    <t>pl_numberT</t>
+  </si>
+  <si>
+    <t>areaMODEL</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>slope</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>mainpl_inc</t>
+  </si>
+  <si>
+    <t>intercr_inc</t>
+  </si>
+  <si>
+    <t>mainpl_cost</t>
+  </si>
+  <si>
+    <t>intercr_cost</t>
+  </si>
+  <si>
+    <t>mainpl_profit_ha</t>
+  </si>
+  <si>
+    <t>intercr_profit_ha</t>
+  </si>
+  <si>
+    <t>intercr_yield</t>
+  </si>
+  <si>
+    <t>mainpl_yield</t>
+  </si>
+  <si>
+    <t>Dat lan da</t>
+  </si>
+  <si>
+    <t>Doc vua</t>
+  </si>
+  <si>
+    <t>Co nuoc</t>
+  </si>
+  <si>
+    <t>Thieu nuoc</t>
+  </si>
+  <si>
+    <t>Dat xam den</t>
+  </si>
+  <si>
+    <t>Dat cat pha</t>
+  </si>
+  <si>
+    <t>Doc cao</t>
+  </si>
+  <si>
+    <t>Doc it</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -30,6 +267,35 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -52,17 +318,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -109,7 +385,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -141,9 +417,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -175,6 +469,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -350,96 +662,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>idMODEL</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>intercr</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>mainpl</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>pl_numberT</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>areaMODEL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>soil</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>slope</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>water</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>mainpl_inc</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>intercr_inc</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>mainpl_cost</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>intercr_cost</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>mainpl_profit_ha</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>intercr_profit_ha</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>intercr_yield</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>mainpl_yield</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -455,37 +737,33 @@
       <c r="E2">
         <v>2.5</v>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
-      </c>
-      <c r="I2">
+      <c r="F2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="2">
         <v>0</v>
       </c>
       <c r="J2">
         <v>40</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="2">
         <v>0</v>
       </c>
       <c r="L2">
         <v>11.2</v>
       </c>
       <c r="M2">
+        <f t="shared" ref="M2:M29" si="0">(I2-K2)/E2</f>
         <v>0</v>
       </c>
       <c r="N2">
+        <f t="shared" ref="N2:N29" si="1">(J2-L2)/E2</f>
         <v>11.52</v>
       </c>
       <c r="O2">
@@ -495,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -511,32 +789,30 @@
       <c r="E3">
         <v>0.1</v>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I3">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="2">
         <v>0</v>
       </c>
       <c r="J3">
         <v>15</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="2">
         <v>0</v>
       </c>
       <c r="L3">
         <v>10</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="O3">
@@ -546,7 +822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -562,20 +838,14 @@
       <c r="E4">
         <v>0.45</v>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -590,10 +860,12 @@
         <v>2</v>
       </c>
       <c r="M4">
-        <v>4.444444444444445</v>
+        <f t="shared" si="0"/>
+        <v>4.4444444444444446</v>
       </c>
       <c r="N4">
-        <v>151.1111111111111</v>
+        <f t="shared" si="1"/>
+        <v>151.11111111111111</v>
       </c>
       <c r="O4">
         <v>152.75</v>
@@ -602,7 +874,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -618,20 +890,14 @@
       <c r="E5">
         <v>0.2</v>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
       </c>
       <c r="I5">
         <v>25</v>
@@ -646,9 +912,11 @@
         <v>5</v>
       </c>
       <c r="M5">
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="N5">
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
       <c r="O5">
@@ -658,7 +926,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -674,20 +942,14 @@
       <c r="E6">
         <v>0.8</v>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
+        <v>19</v>
       </c>
       <c r="I6">
         <v>6</v>
@@ -702,9 +964,11 @@
         <v>0</v>
       </c>
       <c r="M6">
+        <f t="shared" si="0"/>
         <v>7.5</v>
       </c>
       <c r="N6">
+        <f t="shared" si="1"/>
         <v>12.5</v>
       </c>
       <c r="O6">
@@ -714,7 +978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -730,37 +994,33 @@
       <c r="E7">
         <v>0.8</v>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I7">
+      <c r="F7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="2">
         <v>0</v>
       </c>
       <c r="J7">
         <v>10</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="2">
         <v>0</v>
       </c>
       <c r="L7">
         <v>5</v>
       </c>
       <c r="M7">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N7">
+        <f t="shared" si="1"/>
         <v>6.25</v>
       </c>
       <c r="O7">
@@ -770,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -786,15 +1046,11 @@
       <c r="E8">
         <v>0.4</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>19</v>
       </c>
       <c r="I8">
         <v>15</v>
@@ -809,9 +1065,11 @@
         <v>7.5</v>
       </c>
       <c r="M8">
+        <f t="shared" si="0"/>
         <v>12.5</v>
       </c>
       <c r="N8">
+        <f t="shared" si="1"/>
         <v>218.75</v>
       </c>
       <c r="O8">
@@ -821,7 +1079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -837,22 +1095,16 @@
       <c r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
-      </c>
-      <c r="I9">
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
         <v>0</v>
       </c>
       <c r="J9">
@@ -865,19 +1117,21 @@
         <v>90</v>
       </c>
       <c r="M9">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N9">
-        <v>46.66666666666666</v>
+        <f t="shared" si="1"/>
+        <v>46.666666666666664</v>
       </c>
       <c r="O9">
-        <v>4.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -893,20 +1147,14 @@
       <c r="E10">
         <v>2.5</v>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
       </c>
       <c r="I10">
         <v>180</v>
@@ -917,13 +1165,15 @@
       <c r="K10">
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="3">
         <v>80</v>
       </c>
       <c r="M10">
+        <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
+        <f t="shared" si="1"/>
         <v>-32</v>
       </c>
       <c r="O10">
@@ -933,7 +1183,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -949,22 +1199,16 @@
       <c r="E11">
         <v>3</v>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I11">
+      <c r="F11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="2">
         <v>80</v>
       </c>
       <c r="J11">
@@ -977,9 +1221,11 @@
         <v>5</v>
       </c>
       <c r="M11">
-        <v>21.66666666666667</v>
+        <f t="shared" si="0"/>
+        <v>21.666666666666668</v>
       </c>
       <c r="N11">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
       <c r="O11">
@@ -989,7 +1235,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1005,37 +1251,24 @@
       <c r="E12">
         <v>0.2</v>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I12">
-        <v>0</v>
+      <c r="F12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
       </c>
       <c r="J12">
         <v>5</v>
       </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
       <c r="M12">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N12">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
       <c r="O12">
@@ -1045,7 +1278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1061,38 +1294,28 @@
       <c r="E13">
         <v>0.35</v>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I13">
-        <v>0</v>
+      <c r="F13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>19</v>
       </c>
       <c r="J13">
         <v>50</v>
       </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
       <c r="L13">
         <v>8</v>
       </c>
       <c r="M13">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N13">
-        <v>120</v>
+        <f t="shared" si="1"/>
+        <v>120.00000000000001</v>
       </c>
       <c r="O13">
         <v>5</v>
@@ -1101,7 +1324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1117,25 +1340,19 @@
       <c r="E14">
         <v>1.71</v>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F14" t="s">
+        <v>20</v>
+      </c>
+      <c r="G14" t="s">
+        <v>22</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
       </c>
       <c r="I14">
         <v>50</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="3">
         <v>60</v>
       </c>
       <c r="K14">
@@ -1145,10 +1362,12 @@
         <v>15</v>
       </c>
       <c r="M14">
-        <v>17.54385964912281</v>
+        <f t="shared" si="0"/>
+        <v>17.543859649122808</v>
       </c>
       <c r="N14">
-        <v>26.31578947368421</v>
+        <f t="shared" si="1"/>
+        <v>26.315789473684212</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1157,7 +1376,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1173,20 +1392,14 @@
       <c r="E15">
         <v>0.3</v>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>19</v>
       </c>
       <c r="I15">
         <v>30</v>
@@ -1201,10 +1414,12 @@
         <v>3</v>
       </c>
       <c r="M15">
-        <v>83.33333333333334</v>
+        <f t="shared" si="0"/>
+        <v>83.333333333333343</v>
       </c>
       <c r="N15">
-        <v>3.333333333333334</v>
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O15">
         <v>0.6</v>
@@ -1213,7 +1428,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1229,20 +1444,14 @@
       <c r="E16">
         <v>1.8</v>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
       </c>
       <c r="I16">
         <v>18</v>
@@ -1250,17 +1459,16 @@
       <c r="J16">
         <v>10</v>
       </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
       <c r="L16">
         <v>2</v>
       </c>
       <c r="M16">
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="N16">
-        <v>4.444444444444445</v>
+        <f t="shared" si="1"/>
+        <v>4.4444444444444446</v>
       </c>
       <c r="O16">
         <v>1.4</v>
@@ -1269,7 +1477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1285,33 +1493,25 @@
       <c r="E17">
         <v>0.35</v>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I17">
-        <v>0</v>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>19</v>
       </c>
       <c r="J17">
         <v>10</v>
       </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N17">
-        <v>25.71428571428572</v>
+        <f t="shared" si="1"/>
+        <v>25.714285714285715</v>
       </c>
       <c r="O17">
         <v>1.03</v>
@@ -1320,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1336,38 +1536,28 @@
       <c r="E18">
         <v>3.5</v>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I18">
-        <v>0</v>
+      <c r="F18" t="s">
+        <v>20</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>19</v>
       </c>
       <c r="J18">
         <v>130</v>
       </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
       <c r="L18">
         <v>20</v>
       </c>
       <c r="M18">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="N18">
-        <v>31.42857142857143</v>
+        <f t="shared" si="1"/>
+        <v>31.428571428571427</v>
       </c>
       <c r="O18">
         <v>21.05</v>
@@ -1376,7 +1566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1392,38 +1582,31 @@
       <c r="E19">
         <v>0.09</v>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F19" t="s">
+        <v>20</v>
+      </c>
+      <c r="G19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" t="s">
+        <v>19</v>
       </c>
       <c r="I19">
         <v>10</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="3">
         <v>100</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
       </c>
       <c r="L19">
         <v>50</v>
       </c>
       <c r="M19">
-        <v>111.1111111111111</v>
+        <f t="shared" si="0"/>
+        <v>111.11111111111111</v>
       </c>
       <c r="N19">
-        <v>555.5555555555555</v>
+        <f t="shared" si="1"/>
+        <v>555.55555555555554</v>
       </c>
       <c r="O19">
         <v>1.5</v>
@@ -1432,7 +1615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1448,20 +1631,14 @@
       <c r="E20">
         <v>1</v>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F20" t="s">
+        <v>21</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>18</v>
       </c>
       <c r="I20">
         <v>30</v>
@@ -1476,19 +1653,21 @@
         <v>4</v>
       </c>
       <c r="M20">
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="N20">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="O20">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="P20">
         <v>1</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -1504,20 +1683,14 @@
       <c r="E21">
         <v>1.3</v>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F21" t="s">
+        <v>20</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" t="s">
+        <v>19</v>
       </c>
       <c r="I21">
         <v>36</v>
@@ -1532,10 +1705,12 @@
         <v>2</v>
       </c>
       <c r="M21">
-        <v>24.61538461538461</v>
+        <f t="shared" si="0"/>
+        <v>24.615384615384613</v>
       </c>
       <c r="N21">
-        <v>9.23076923076923</v>
+        <f t="shared" si="1"/>
+        <v>9.2307692307692299</v>
       </c>
       <c r="O21">
         <v>0.43</v>
@@ -1544,7 +1719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -1558,22 +1733,16 @@
         <v>3</v>
       </c>
       <c r="E22">
-        <v>0.55</v>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F22" t="s">
+        <v>21</v>
+      </c>
+      <c r="G22" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
       </c>
       <c r="I22">
         <v>20</v>
@@ -1588,9 +1757,11 @@
         <v>10</v>
       </c>
       <c r="M22">
-        <v>30.90909090909091</v>
+        <f t="shared" si="0"/>
+        <v>30.909090909090907</v>
       </c>
       <c r="N22">
+        <f t="shared" si="1"/>
         <v>72.72727272727272</v>
       </c>
       <c r="O22">
@@ -1600,7 +1771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1616,32 +1787,24 @@
       <c r="E23">
         <v>0.6</v>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
       </c>
       <c r="I23">
         <v>20</v>
       </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
       <c r="K23">
         <v>5</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
       <c r="M23">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="N23">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O23">
@@ -1651,7 +1814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1667,20 +1830,14 @@
       <c r="E24">
         <v>0.72</v>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F24" t="s">
+        <v>20</v>
+      </c>
+      <c r="G24" t="s">
+        <v>22</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
       </c>
       <c r="I24">
         <v>14</v>
@@ -1695,10 +1852,12 @@
         <v>2</v>
       </c>
       <c r="M24">
-        <v>18.05555555555556</v>
+        <f t="shared" si="0"/>
+        <v>18.055555555555557</v>
       </c>
       <c r="N24">
-        <v>6.944444444444445</v>
+        <f t="shared" si="1"/>
+        <v>6.9444444444444446</v>
       </c>
       <c r="O24">
         <v>0.25</v>
@@ -1707,7 +1866,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1723,20 +1882,14 @@
       <c r="E25">
         <v>2</v>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F25" t="s">
+        <v>21</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>19</v>
       </c>
       <c r="I25">
         <v>30</v>
@@ -1751,9 +1904,11 @@
         <v>3</v>
       </c>
       <c r="M25">
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="N25">
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="O25">
@@ -1763,7 +1918,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1779,20 +1934,14 @@
       <c r="E26">
         <v>0.3</v>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F26" t="s">
+        <v>21</v>
+      </c>
+      <c r="G26" t="s">
+        <v>22</v>
+      </c>
+      <c r="H26" t="s">
+        <v>19</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -1800,26 +1949,22 @@
       <c r="J26">
         <v>1</v>
       </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
       <c r="M26">
-        <v>16.66666666666667</v>
+        <f t="shared" si="0"/>
+        <v>16.666666666666668</v>
       </c>
       <c r="N26">
-        <v>3.333333333333334</v>
+        <f t="shared" si="1"/>
+        <v>3.3333333333333335</v>
       </c>
       <c r="O26">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="P26">
         <v>0.35</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1835,20 +1980,14 @@
       <c r="E27">
         <v>0.2</v>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F27" t="s">
+        <v>21</v>
+      </c>
+      <c r="G27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" t="s">
+        <v>19</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -1856,16 +1995,12 @@
       <c r="J27">
         <v>7</v>
       </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
       <c r="M27">
+        <f t="shared" si="0"/>
         <v>60</v>
       </c>
       <c r="N27">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
       <c r="O27">
@@ -1875,7 +2010,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1891,17 +2026,13 @@
       <c r="E28">
         <v>0.1</v>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
-      </c>
-      <c r="I28">
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28" t="s">
+        <v>19</v>
+      </c>
+      <c r="I28" s="3">
         <v>50</v>
       </c>
       <c r="J28">
@@ -1913,10 +2044,12 @@
       <c r="L28">
         <v>3</v>
       </c>
-      <c r="M28">
+      <c r="M28" s="3">
+        <f t="shared" si="0"/>
         <v>450</v>
       </c>
       <c r="N28">
+        <f t="shared" si="1"/>
         <v>70</v>
       </c>
       <c r="O28">
@@ -1926,7 +2059,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1942,25 +2075,19 @@
       <c r="E29">
         <v>7.65</v>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
-      </c>
-      <c r="I29">
+      <c r="F29" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" t="s">
+        <v>23</v>
+      </c>
+      <c r="H29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="3">
         <v>15</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="3">
         <v>23</v>
       </c>
       <c r="K29">
@@ -1970,10 +2097,12 @@
         <v>2.5</v>
       </c>
       <c r="M29">
-        <v>1.764705882352941</v>
+        <f t="shared" si="0"/>
+        <v>1.7647058823529411</v>
       </c>
       <c r="N29">
-        <v>2.679738562091503</v>
+        <f t="shared" si="1"/>
+        <v>2.6797385620915031</v>
       </c>
       <c r="O29">
         <v>1.67</v>
@@ -1982,7 +2111,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1998,20 +2127,14 @@
       <c r="E30">
         <v>0.4</v>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F30" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" t="s">
+        <v>19</v>
       </c>
       <c r="I30">
         <v>25</v>
@@ -2038,7 +2161,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2054,20 +2177,14 @@
       <c r="E31">
         <v>1</v>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F31" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" t="s">
+        <v>19</v>
       </c>
       <c r="I31">
         <v>5</v>
@@ -2094,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2110,20 +2227,14 @@
       <c r="E32">
         <v>0.7</v>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F32" t="s">
+        <v>21</v>
+      </c>
+      <c r="G32" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" t="s">
+        <v>19</v>
       </c>
       <c r="I32">
         <v>10</v>
@@ -2138,7 +2249,7 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>11.42857142857143</v>
+        <v>11.428571428571431</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -2150,7 +2261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2166,15 +2277,11 @@
       <c r="E33">
         <v>1</v>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G33" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
       </c>
       <c r="I33">
         <v>25</v>
@@ -2201,7 +2308,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2215,22 +2322,16 @@
         <v>4</v>
       </c>
       <c r="E34">
-        <v>0.225</v>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="F34" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" t="s">
+        <v>22</v>
+      </c>
+      <c r="H34" t="s">
+        <v>18</v>
       </c>
       <c r="I34">
         <v>1.5</v>
@@ -2245,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>2.222222222222222</v>
+        <v>2.2222222222222219</v>
       </c>
       <c r="N34">
-        <v>31.11111111111111</v>
+        <v>31.111111111111111</v>
       </c>
       <c r="O34">
         <v>0.5</v>
@@ -2257,7 +2358,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2273,20 +2374,14 @@
       <c r="E35">
         <v>10</v>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F35" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" t="s">
+        <v>18</v>
       </c>
       <c r="I35">
         <v>380</v>
@@ -2313,7 +2408,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2329,10 +2424,8 @@
       <c r="E36">
         <v>0.5</v>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
+      <c r="F36" t="s">
+        <v>21</v>
       </c>
       <c r="I36">
         <v>0</v>
@@ -2359,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2375,20 +2468,14 @@
       <c r="E37">
         <v>0.38</v>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" t="s">
+        <v>19</v>
       </c>
       <c r="I37">
         <v>20</v>
@@ -2406,16 +2493,16 @@
         <v>50</v>
       </c>
       <c r="N37">
-        <v>76.31578947368421</v>
+        <v>76.315789473684205</v>
       </c>
       <c r="O37">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="P37">
         <v>4</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2431,15 +2518,11 @@
       <c r="E38">
         <v>2.5</v>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G38" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" t="s">
+        <v>19</v>
       </c>
       <c r="I38">
         <v>180</v>
@@ -2466,7 +2549,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2482,20 +2565,14 @@
       <c r="E39">
         <v>0.72</v>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F39" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" t="s">
+        <v>18</v>
       </c>
       <c r="I39">
         <v>10</v>
@@ -2510,19 +2587,19 @@
         <v>2</v>
       </c>
       <c r="M39">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N39">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="O39">
-        <v>25.115</v>
+        <v>25.114999999999998</v>
       </c>
       <c r="P39">
         <v>0.65</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2538,20 +2615,14 @@
       <c r="E40">
         <v>5</v>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F40" t="s">
+        <v>21</v>
+      </c>
+      <c r="G40" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" t="s">
+        <v>18</v>
       </c>
       <c r="I40">
         <v>240</v>
@@ -2572,13 +2643,13 @@
         <v>20</v>
       </c>
       <c r="O40">
-        <v>4.6</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="P40">
         <v>30</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2594,20 +2665,14 @@
       <c r="E41">
         <v>1</v>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F41" t="s">
+        <v>21</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+      <c r="H41" t="s">
+        <v>19</v>
       </c>
       <c r="I41">
         <v>20</v>
@@ -2634,7 +2699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2650,20 +2715,14 @@
       <c r="E42">
         <v>2</v>
       </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F42" t="s">
+        <v>21</v>
+      </c>
+      <c r="G42" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" t="s">
+        <v>19</v>
       </c>
       <c r="I42">
         <v>120</v>
@@ -2690,7 +2749,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2706,20 +2765,14 @@
       <c r="E43">
         <v>4.5</v>
       </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F43" t="s">
+        <v>21</v>
+      </c>
+      <c r="G43" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" t="s">
+        <v>19</v>
       </c>
       <c r="I43">
         <v>30</v>
@@ -2734,7 +2787,7 @@
         <v>35</v>
       </c>
       <c r="M43">
-        <v>4.444444444444445</v>
+        <v>4.4444444444444446</v>
       </c>
       <c r="N43">
         <v>70</v>
@@ -2746,7 +2799,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2762,20 +2815,14 @@
       <c r="E44">
         <v>0.45</v>
       </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F44" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" t="s">
+        <v>19</v>
       </c>
       <c r="I44">
         <v>90</v>
@@ -2790,10 +2837,10 @@
         <v>5</v>
       </c>
       <c r="M44">
-        <v>188.8888888888889</v>
+        <v>188.88888888888891</v>
       </c>
       <c r="N44">
-        <v>66.66666666666667</v>
+        <v>66.666666666666671</v>
       </c>
       <c r="O44">
         <v>1.25</v>
@@ -2802,7 +2849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2818,20 +2865,14 @@
       <c r="E45">
         <v>0.25</v>
       </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F45" t="s">
+        <v>21</v>
+      </c>
+      <c r="G45" t="s">
+        <v>17</v>
+      </c>
+      <c r="H45" t="s">
+        <v>18</v>
       </c>
       <c r="I45">
         <v>10</v>
@@ -2852,13 +2893,13 @@
         <v>48</v>
       </c>
       <c r="O45">
-        <v>0.6799999999999999</v>
+        <v>0.67999999999999994</v>
       </c>
       <c r="P45">
         <v>1</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2874,20 +2915,14 @@
       <c r="E46">
         <v>2</v>
       </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F46" t="s">
+        <v>16</v>
+      </c>
+      <c r="G46" t="s">
+        <v>17</v>
+      </c>
+      <c r="H46" t="s">
+        <v>18</v>
       </c>
       <c r="I46">
         <v>20</v>
@@ -2914,7 +2949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2930,15 +2965,11 @@
       <c r="E47">
         <v>1</v>
       </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G47" t="s">
+        <v>17</v>
+      </c>
+      <c r="H47" t="s">
+        <v>19</v>
       </c>
       <c r="I47">
         <v>25</v>
@@ -2965,7 +2996,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2981,15 +3012,11 @@
       <c r="E48">
         <v>0.37</v>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G48" t="s">
+        <v>23</v>
+      </c>
+      <c r="H48" t="s">
+        <v>19</v>
       </c>
       <c r="I48">
         <v>10</v>
@@ -3004,10 +3031,10 @@
         <v>5</v>
       </c>
       <c r="M48">
-        <v>27.02702702702703</v>
+        <v>27.027027027027032</v>
       </c>
       <c r="N48">
-        <v>67.56756756756757</v>
+        <v>67.567567567567565</v>
       </c>
       <c r="O48">
         <v>0.4</v>
@@ -3016,7 +3043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3032,20 +3059,14 @@
       <c r="E49">
         <v>5</v>
       </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F49" t="s">
+        <v>20</v>
+      </c>
+      <c r="G49" t="s">
+        <v>17</v>
+      </c>
+      <c r="H49" t="s">
+        <v>19</v>
       </c>
       <c r="I49">
         <v>70</v>
@@ -3072,7 +3093,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3088,20 +3109,14 @@
       <c r="E50">
         <v>2.5</v>
       </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F50" t="s">
+        <v>21</v>
+      </c>
+      <c r="G50" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" t="s">
+        <v>19</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -3128,7 +3143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3144,20 +3159,14 @@
       <c r="E51">
         <v>0.52</v>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F51" t="s">
+        <v>21</v>
+      </c>
+      <c r="G51" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" t="s">
+        <v>19</v>
       </c>
       <c r="I51">
         <v>10</v>
@@ -3178,13 +3187,13 @@
         <v>18.46153846153846</v>
       </c>
       <c r="O51">
-        <v>0.8949999999999999</v>
+        <v>0.89499999999999991</v>
       </c>
       <c r="P51">
         <v>0.02</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3200,20 +3209,14 @@
       <c r="E52">
         <v>0.5</v>
       </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F52" t="s">
+        <v>20</v>
+      </c>
+      <c r="G52" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" t="s">
+        <v>18</v>
       </c>
       <c r="I52">
         <v>0</v>
@@ -3240,7 +3243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -3256,15 +3259,11 @@
       <c r="E53">
         <v>0.97</v>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G53" t="s">
+        <v>23</v>
+      </c>
+      <c r="H53" t="s">
+        <v>19</v>
       </c>
       <c r="I53">
         <v>5</v>
@@ -3279,10 +3278,10 @@
         <v>0</v>
       </c>
       <c r="M53">
-        <v>4.639175257731959</v>
+        <v>4.6391752577319592</v>
       </c>
       <c r="N53">
-        <v>20.61855670103093</v>
+        <v>20.618556701030929</v>
       </c>
       <c r="O53">
         <v>0.1</v>
@@ -3291,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>53</v>
       </c>
@@ -3307,15 +3306,11 @@
       <c r="E54">
         <v>1.17</v>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="G54" t="s">
+        <v>22</v>
+      </c>
+      <c r="H54" t="s">
+        <v>18</v>
       </c>
       <c r="I54">
         <v>70</v>
@@ -3342,7 +3337,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -3358,20 +3353,14 @@
       <c r="E55">
         <v>0.24</v>
       </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F55" t="s">
+        <v>21</v>
+      </c>
+      <c r="G55" t="s">
+        <v>23</v>
+      </c>
+      <c r="H55" t="s">
+        <v>19</v>
       </c>
       <c r="I55">
         <v>10</v>
@@ -3389,7 +3378,7 @@
         <v>37.5</v>
       </c>
       <c r="N55">
-        <v>20.83333333333334</v>
+        <v>20.833333333333339</v>
       </c>
       <c r="O55">
         <v>0.1</v>
@@ -3398,7 +3387,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -3414,20 +3403,14 @@
       <c r="E56">
         <v>1.6</v>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F56" t="s">
+        <v>21</v>
+      </c>
+      <c r="G56" t="s">
+        <v>22</v>
+      </c>
+      <c r="H56" t="s">
+        <v>18</v>
       </c>
       <c r="I56">
         <v>150</v>
@@ -3454,7 +3437,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>56</v>
       </c>
@@ -3470,20 +3453,14 @@
       <c r="E57">
         <v>1</v>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F57" t="s">
+        <v>20</v>
+      </c>
+      <c r="G57" t="s">
+        <v>17</v>
+      </c>
+      <c r="H57" t="s">
+        <v>19</v>
       </c>
       <c r="I57">
         <v>40</v>
@@ -3510,7 +3487,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>57</v>
       </c>
@@ -3526,15 +3503,11 @@
       <c r="E58">
         <v>1.4</v>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G58" t="s">
+        <v>17</v>
+      </c>
+      <c r="H58" t="s">
+        <v>19</v>
       </c>
       <c r="I58">
         <v>0</v>
@@ -3552,7 +3525,7 @@
         <v>0</v>
       </c>
       <c r="N58">
-        <v>16.42857142857143</v>
+        <v>16.428571428571431</v>
       </c>
       <c r="O58">
         <v>4</v>
@@ -3561,7 +3534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>58</v>
       </c>
@@ -3577,20 +3550,14 @@
       <c r="E59">
         <v>0.9</v>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F59" t="s">
+        <v>20</v>
+      </c>
+      <c r="G59" t="s">
+        <v>17</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
       </c>
       <c r="I59">
         <v>15</v>
@@ -3617,7 +3584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -3633,20 +3600,14 @@
       <c r="E60">
         <v>1.9</v>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F60" t="s">
+        <v>21</v>
+      </c>
+      <c r="G60" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
       </c>
       <c r="I60">
         <v>0</v>
@@ -3664,16 +3625,16 @@
         <v>0</v>
       </c>
       <c r="N60">
-        <v>55.26315789473684</v>
+        <v>55.263157894736842</v>
       </c>
       <c r="O60">
-        <v>1.005</v>
+        <v>1.0049999999999999</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>60</v>
       </c>
@@ -3689,20 +3650,14 @@
       <c r="E61">
         <v>10</v>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F61" t="s">
+        <v>16</v>
+      </c>
+      <c r="G61" t="s">
+        <v>22</v>
+      </c>
+      <c r="H61" t="s">
+        <v>19</v>
       </c>
       <c r="I61">
         <v>115</v>
@@ -3729,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -3745,20 +3700,14 @@
       <c r="E62">
         <v>1.5</v>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F62" t="s">
+        <v>21</v>
+      </c>
+      <c r="G62" t="s">
+        <v>23</v>
+      </c>
+      <c r="H62" t="s">
+        <v>18</v>
       </c>
       <c r="I62">
         <v>130</v>
@@ -3773,10 +3722,10 @@
         <v>5.5</v>
       </c>
       <c r="M62">
-        <v>56.66666666666666</v>
+        <v>56.666666666666657</v>
       </c>
       <c r="N62">
-        <v>49.66666666666666</v>
+        <v>49.666666666666657</v>
       </c>
       <c r="O62">
         <v>9.9</v>
@@ -3785,7 +3734,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>62</v>
       </c>
@@ -3801,15 +3750,11 @@
       <c r="E63">
         <v>0.4</v>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G63" t="s">
+        <v>23</v>
+      </c>
+      <c r="H63" t="s">
+        <v>19</v>
       </c>
       <c r="I63">
         <v>20</v>
@@ -3836,7 +3781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>63</v>
       </c>
@@ -3852,20 +3797,14 @@
       <c r="E64">
         <v>1</v>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F64" t="s">
+        <v>20</v>
+      </c>
+      <c r="G64" t="s">
+        <v>22</v>
+      </c>
+      <c r="H64" t="s">
+        <v>18</v>
       </c>
       <c r="I64">
         <v>15</v>
@@ -3892,7 +3831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
@@ -3908,20 +3847,14 @@
       <c r="E65">
         <v>0.5</v>
       </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F65" t="s">
+        <v>16</v>
+      </c>
+      <c r="G65" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" t="s">
+        <v>19</v>
       </c>
       <c r="I65">
         <v>10</v>
@@ -3936,7 +3869,7 @@
         <v>0.5</v>
       </c>
       <c r="M65">
-        <v>19.4</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="N65">
         <v>19</v>
@@ -3948,7 +3881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
@@ -3964,20 +3897,14 @@
       <c r="E66">
         <v>1.5</v>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F66" t="s">
+        <v>16</v>
+      </c>
+      <c r="G66" t="s">
+        <v>17</v>
+      </c>
+      <c r="H66" t="s">
+        <v>19</v>
       </c>
       <c r="I66">
         <v>18</v>
@@ -3995,7 +3922,7 @@
         <v>11.66666666666667</v>
       </c>
       <c r="N66">
-        <v>20.66666666666667</v>
+        <v>20.666666666666671</v>
       </c>
       <c r="O66">
         <v>1</v>
@@ -4004,7 +3931,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4020,20 +3947,14 @@
       <c r="E67">
         <v>2</v>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F67" t="s">
+        <v>16</v>
+      </c>
+      <c r="G67" t="s">
+        <v>17</v>
+      </c>
+      <c r="H67" t="s">
+        <v>19</v>
       </c>
       <c r="I67">
         <v>65</v>
@@ -4060,7 +3981,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4076,15 +3997,11 @@
       <c r="E68">
         <v>2</v>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G68" t="s">
+        <v>17</v>
+      </c>
+      <c r="H68" t="s">
+        <v>19</v>
       </c>
       <c r="I68">
         <v>60</v>
@@ -4111,7 +4028,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4125,22 +4042,16 @@
         <v>5</v>
       </c>
       <c r="E69">
-        <v>0.576</v>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F69" t="s">
+        <v>16</v>
+      </c>
+      <c r="G69" t="s">
+        <v>17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>19</v>
       </c>
       <c r="I69">
         <v>50</v>
@@ -4155,7 +4066,7 @@
         <v>30</v>
       </c>
       <c r="M69">
-        <v>79.86111111111111</v>
+        <v>79.861111111111114</v>
       </c>
       <c r="N69">
         <v>121.5277777777778</v>
@@ -4167,7 +4078,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4183,20 +4094,14 @@
       <c r="E70">
         <v>1</v>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F70" t="s">
+        <v>16</v>
+      </c>
+      <c r="G70" t="s">
+        <v>17</v>
+      </c>
+      <c r="H70" t="s">
+        <v>18</v>
       </c>
       <c r="I70">
         <v>40</v>
@@ -4223,7 +4128,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4239,20 +4144,14 @@
       <c r="E71">
         <v>0.7</v>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F71" t="s">
+        <v>20</v>
+      </c>
+      <c r="G71" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" t="s">
+        <v>19</v>
       </c>
       <c r="I71">
         <v>16</v>
@@ -4279,7 +4178,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4293,22 +4192,16 @@
         <v>5</v>
       </c>
       <c r="E72">
-        <v>1.1</v>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F72" t="s">
+        <v>16</v>
+      </c>
+      <c r="G72" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" t="s">
+        <v>19</v>
       </c>
       <c r="I72">
         <v>30</v>
@@ -4326,7 +4219,7 @@
         <v>13.63636363636364</v>
       </c>
       <c r="N72">
-        <v>2.272727272727273</v>
+        <v>2.2727272727272729</v>
       </c>
       <c r="O72">
         <v>0.23</v>
@@ -4335,7 +4228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4351,20 +4244,14 @@
       <c r="E73">
         <v>2</v>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F73" t="s">
+        <v>16</v>
+      </c>
+      <c r="G73" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" t="s">
+        <v>19</v>
       </c>
       <c r="I73">
         <v>150</v>
@@ -4391,7 +4278,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4405,17 +4292,13 @@
         <v>3</v>
       </c>
       <c r="E74">
-        <v>1.152</v>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="F74" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" t="s">
+        <v>19</v>
       </c>
       <c r="I74">
         <v>15</v>
@@ -4430,10 +4313,10 @@
         <v>5</v>
       </c>
       <c r="M74">
-        <v>8.680555555555555</v>
+        <v>8.6805555555555554</v>
       </c>
       <c r="N74">
-        <v>8.680555555555555</v>
+        <v>8.6805555555555554</v>
       </c>
       <c r="O74">
         <v>2.8</v>
@@ -4442,7 +4325,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4458,20 +4341,14 @@
       <c r="E75">
         <v>0.7</v>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F75" t="s">
+        <v>16</v>
+      </c>
+      <c r="G75" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" t="s">
+        <v>18</v>
       </c>
       <c r="I75">
         <v>235</v>
@@ -4486,10 +4363,10 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>142.8571428571429</v>
+        <v>142.85714285714289</v>
       </c>
       <c r="N75">
-        <v>7.142857142857143</v>
+        <v>7.1428571428571432</v>
       </c>
       <c r="O75">
         <v>0.15</v>
@@ -4498,7 +4375,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4512,17 +4389,13 @@
         <v>5</v>
       </c>
       <c r="E76">
-        <v>1.1</v>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G76" t="s">
+        <v>23</v>
+      </c>
+      <c r="H76" t="s">
+        <v>19</v>
       </c>
       <c r="I76">
         <v>20</v>
@@ -4549,7 +4422,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4565,20 +4438,14 @@
       <c r="E77">
         <v>1.7</v>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F77" t="s">
+        <v>21</v>
+      </c>
+      <c r="G77" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" t="s">
+        <v>18</v>
       </c>
       <c r="I77">
         <v>30</v>
@@ -4593,7 +4460,7 @@
         <v>15</v>
       </c>
       <c r="M77">
-        <v>14.70588235294118</v>
+        <v>14.705882352941179</v>
       </c>
       <c r="N77">
         <v>111.7647058823529</v>
@@ -4605,7 +4472,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4621,15 +4488,11 @@
       <c r="E78">
         <v>1.8</v>
       </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G78" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" t="s">
+        <v>19</v>
       </c>
       <c r="I78">
         <v>30</v>
@@ -4644,10 +4507,10 @@
         <v>43</v>
       </c>
       <c r="M78">
-        <v>16.66666666666667</v>
+        <v>16.666666666666671</v>
       </c>
       <c r="N78">
-        <v>31.66666666666666</v>
+        <v>31.666666666666661</v>
       </c>
       <c r="O78">
         <v>2.1</v>
@@ -4656,7 +4519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4672,15 +4535,11 @@
       <c r="E79">
         <v>0.9</v>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F79" t="s">
+        <v>16</v>
+      </c>
+      <c r="H79" t="s">
+        <v>19</v>
       </c>
       <c r="I79">
         <v>8</v>
@@ -4707,7 +4566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4723,20 +4582,14 @@
       <c r="E80">
         <v>0.8</v>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F80" t="s">
+        <v>20</v>
+      </c>
+      <c r="G80" t="s">
+        <v>22</v>
+      </c>
+      <c r="H80" t="s">
+        <v>18</v>
       </c>
       <c r="I80">
         <v>15</v>
@@ -4763,7 +4616,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4776,20 +4629,14 @@
       <c r="D81">
         <v>2</v>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F81" t="s">
+        <v>20</v>
+      </c>
+      <c r="G81" t="s">
+        <v>22</v>
+      </c>
+      <c r="H81" t="s">
+        <v>19</v>
       </c>
       <c r="I81">
         <v>10</v>
@@ -4816,7 +4663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4832,20 +4679,14 @@
       <c r="E82">
         <v>1</v>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G82" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F82" t="s">
+        <v>20</v>
+      </c>
+      <c r="G82" t="s">
+        <v>17</v>
+      </c>
+      <c r="H82" t="s">
+        <v>19</v>
       </c>
       <c r="I82">
         <v>20</v>
@@ -4872,7 +4713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4888,15 +4729,11 @@
       <c r="E83">
         <v>0.8</v>
       </c>
-      <c r="G83" t="inlineStr">
-        <is>
-          <t>Doc it</t>
-        </is>
-      </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="G83" t="s">
+        <v>23</v>
+      </c>
+      <c r="H83" t="s">
+        <v>18</v>
       </c>
       <c r="I83">
         <v>20</v>
@@ -4923,7 +4760,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4939,15 +4776,11 @@
       <c r="E84">
         <v>2.25</v>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Dat cat pha</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F84" t="s">
+        <v>21</v>
+      </c>
+      <c r="H84" t="s">
+        <v>19</v>
       </c>
       <c r="I84">
         <v>40</v>
@@ -4962,10 +4795,10 @@
         <v>15</v>
       </c>
       <c r="M84">
-        <v>15.55555555555556</v>
+        <v>15.555555555555561</v>
       </c>
       <c r="N84">
-        <v>22.66666666666667</v>
+        <v>22.666666666666671</v>
       </c>
       <c r="O84">
         <v>2.65</v>
@@ -4974,7 +4807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4990,20 +4823,14 @@
       <c r="E85">
         <v>0.3</v>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" t="s">
+        <v>19</v>
       </c>
       <c r="I85">
         <v>6</v>
@@ -5030,7 +4857,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5046,20 +4873,14 @@
       <c r="E86">
         <v>1</v>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F86" t="s">
+        <v>16</v>
+      </c>
+      <c r="G86" t="s">
+        <v>22</v>
+      </c>
+      <c r="H86" t="s">
+        <v>19</v>
       </c>
       <c r="I86">
         <v>80</v>
@@ -5080,13 +4901,13 @@
         <v>38</v>
       </c>
       <c r="O86">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="P86">
         <v>4</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5102,20 +4923,14 @@
       <c r="E87">
         <v>0.8</v>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F87" t="s">
+        <v>16</v>
+      </c>
+      <c r="G87" t="s">
+        <v>22</v>
+      </c>
+      <c r="H87" t="s">
+        <v>19</v>
       </c>
       <c r="I87">
         <v>35</v>
@@ -5142,7 +4957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5158,15 +4973,11 @@
       <c r="E88">
         <v>0.5</v>
       </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="G88" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" t="s">
+        <v>19</v>
       </c>
       <c r="I88">
         <v>10</v>
@@ -5193,7 +5004,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5209,20 +5020,14 @@
       <c r="E89">
         <v>1.17</v>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>Co nuoc</t>
-        </is>
+      <c r="F89" t="s">
+        <v>20</v>
+      </c>
+      <c r="G89" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" t="s">
+        <v>18</v>
       </c>
       <c r="I89">
         <v>14</v>
@@ -5237,10 +5042,10 @@
         <v>1</v>
       </c>
       <c r="M89">
-        <v>11.11111111111111</v>
+        <v>11.111111111111111</v>
       </c>
       <c r="N89">
-        <v>4.273504273504273</v>
+        <v>4.2735042735042734</v>
       </c>
       <c r="O89">
         <v>400.15</v>
@@ -5249,7 +5054,7 @@
         <v>0.45</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5263,22 +5068,16 @@
         <v>7</v>
       </c>
       <c r="E90">
-        <v>2.2</v>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Dat xam den</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F90" t="s">
+        <v>20</v>
+      </c>
+      <c r="G90" t="s">
+        <v>17</v>
+      </c>
+      <c r="H90" t="s">
+        <v>19</v>
       </c>
       <c r="I90">
         <v>105</v>
@@ -5296,7 +5095,7 @@
         <v>25</v>
       </c>
       <c r="N90">
-        <v>9.09090909090909</v>
+        <v>9.0909090909090899</v>
       </c>
       <c r="O90">
         <v>0</v>
@@ -5305,7 +5104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5321,20 +5120,14 @@
       <c r="E91">
         <v>1</v>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G91" t="inlineStr">
-        <is>
-          <t>Doc cao</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F91" t="s">
+        <v>16</v>
+      </c>
+      <c r="G91" t="s">
+        <v>22</v>
+      </c>
+      <c r="H91" t="s">
+        <v>19</v>
       </c>
       <c r="I91">
         <v>15</v>
@@ -5361,7 +5154,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5377,20 +5170,14 @@
       <c r="E92">
         <v>0.5</v>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Dat lan da</t>
-        </is>
-      </c>
-      <c r="G92" t="inlineStr">
-        <is>
-          <t>Doc vua</t>
-        </is>
-      </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>Thieu nuoc</t>
-        </is>
+      <c r="F92" t="s">
+        <v>16</v>
+      </c>
+      <c r="G92" t="s">
+        <v>17</v>
+      </c>
+      <c r="H92" t="s">
+        <v>19</v>
       </c>
       <c r="I92">
         <v>45</v>
@@ -5417,7 +5204,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5455,7 +5242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5496,7 +5283,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5510,7 +5297,7 @@
         <v>1</v>
       </c>
       <c r="E95">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="I95">
         <v>0</v>
@@ -5537,7 +5324,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5578,7 +5365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5619,7 +5406,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5660,7 +5447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5701,7 +5488,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5744,5 +5531,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>